--- a/Administration/Planning installation salle.xlsx
+++ b/Administration/Planning installation salle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Jeudi</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>17h</t>
-  </si>
-  <si>
-    <t>18h</t>
   </si>
 </sst>
 </file>
@@ -129,11 +126,62 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -143,36 +191,33 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -181,38 +226,64 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,14 +608,14 @@
   <dimension ref="B2:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" customWidth="1"/>
     <col min="2" max="2" width="0.5546875" customWidth="1"/>
-    <col min="3" max="28" width="6.77734375" customWidth="1"/>
+    <col min="3" max="28" width="5.77734375" customWidth="1"/>
     <col min="29" max="29" width="0.5546875" customWidth="1"/>
     <col min="30" max="47" width="6.77734375" customWidth="1"/>
   </cols>
@@ -581,34 +652,34 @@
     </row>
     <row r="3" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -643,86 +714,86 @@
     </row>
     <row r="5" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="6" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="29"/>
       <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="12"/>
@@ -733,40 +804,40 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -799,160 +870,158 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="8" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
       <c r="AC14" s="1"/>
     </row>
     <row r="15" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -987,42 +1056,42 @@
     </row>
     <row r="16" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="P16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="22" t="s">
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y16" s="21" t="s">
-        <v>10</v>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="15" t="s">
+        <v>6</v>
       </c>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="2:29" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -1056,19 +1125,17 @@
       <c r="AC17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="8">
+    <mergeCell ref="Y13:AB14"/>
+    <mergeCell ref="P7:AB8"/>
+    <mergeCell ref="C10:AB11"/>
+    <mergeCell ref="C13:X14"/>
+    <mergeCell ref="C3:AB3"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="U5:X5"/>
     <mergeCell ref="C7:O8"/>
-    <mergeCell ref="P7:X8"/>
-    <mergeCell ref="Y13:AB14"/>
-    <mergeCell ref="P13:X14"/>
-    <mergeCell ref="C13:O14"/>
-    <mergeCell ref="P10:X11"/>
-    <mergeCell ref="C3:AB3"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="P5:AB5"/>
-    <mergeCell ref="C10:O11"/>
-    <mergeCell ref="Y10:AB11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>